--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>ID da Atividade</t>
   </si>
@@ -574,52 +574,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,6 +837,324 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -932,348 +1250,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1379,7 +1379,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A32:D39" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A32:D39" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A32:D39">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1387,17 +1387,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="ID. Do Recurso" dataDxfId="15"/>
-    <tableColumn id="2" name="Recurso" dataDxfId="14"/>
-    <tableColumn id="3" name="Carga horária" dataDxfId="13"/>
-    <tableColumn id="4" name="Custo" dataDxfId="12"/>
+    <tableColumn id="1" name="ID. Do Recurso" dataDxfId="30"/>
+    <tableColumn id="2" name="Recurso" dataDxfId="29"/>
+    <tableColumn id="3" name="Carga horária" dataDxfId="28"/>
+    <tableColumn id="4" name="Custo" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:L29" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:L29" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
   <autoFilter ref="A2:L28">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1413,22 +1413,22 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Dependência" dataDxfId="31" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="Atividade" dataDxfId="30" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Inicio" dataDxfId="29" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Término" dataDxfId="28" totalsRowDxfId="7"/>
-    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="27" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Recurso" dataDxfId="26" totalsRowDxfId="5"/>
-    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="3">
+    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="Dependência" dataDxfId="22" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="Atividade" dataDxfId="21" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Inicio" dataDxfId="20" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="Término" dataDxfId="19" totalsRowDxfId="7"/>
+    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="18" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Recurso" dataDxfId="17" totalsRowDxfId="5"/>
+    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="3">
       <totalsRowFormula>SUM(I3:I28)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Status" dataDxfId="23" totalsRowDxfId="2"/>
-    <tableColumn id="12" name="Taxa de Conclusão" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="1">
+    <tableColumn id="11" name="Status" dataDxfId="14" totalsRowDxfId="2"/>
+    <tableColumn id="12" name="Taxa de Conclusão" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
       <totalsRowFormula>AVERAGE(K3:K28)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Desvio" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="0"/>
+    <tableColumn id="13" name="Desvio" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1733,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1752,20 +1752,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1977,11 +1977,15 @@
       <c r="I7" s="9">
         <v>300</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2011,11 +2015,15 @@
       <c r="I8" s="9">
         <v>1800</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10">
         <v>0</v>
       </c>
-      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -2077,11 +2085,15 @@
       <c r="I10" s="9">
         <v>5180</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -2704,7 +2716,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="10">
         <f>AVERAGE(K3:K28)</f>
-        <v>0.11538461538461539</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="L29" s="10">
         <f>SUBTOTAL(109,Tabela3[Desvio])</f>
@@ -2712,33 +2724,33 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="F31" s="25" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="F31" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
@@ -2753,15 +2765,15 @@
       <c r="D32" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29" t="s">
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="24" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2781,11 +2793,11 @@
       <c r="F33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="9">
         <v>500</v>
       </c>
@@ -2806,11 +2818,11 @@
       <c r="F34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="9">
         <v>600</v>
       </c>
@@ -2831,11 +2843,11 @@
       <c r="F35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="9">
         <v>2000</v>
       </c>
@@ -2856,11 +2868,11 @@
       <c r="F36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="9">
         <v>2000</v>
       </c>
@@ -2878,11 +2890,11 @@
       <c r="D37" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
@@ -2914,15 +2926,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="F31:J31"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="F31:J31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>ID da Atividade</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>R4, R8, R9, R10</t>
+  </si>
+  <si>
+    <t>29 dias</t>
   </si>
 </sst>
 </file>
@@ -592,6 +595,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,21 +623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1417,7 +1420,7 @@
     <tableColumn id="2" name="Dependência" dataDxfId="22" totalsRowDxfId="10"/>
     <tableColumn id="4" name="Atividade" dataDxfId="21" totalsRowDxfId="9"/>
     <tableColumn id="5" name="Inicio" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Término" dataDxfId="19" totalsRowDxfId="7"/>
+    <tableColumn id="6" name="Término" totalsRowLabel="29 dias" dataDxfId="19" totalsRowDxfId="7"/>
     <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="18" totalsRowDxfId="6"/>
     <tableColumn id="8" name="Recurso" dataDxfId="17" totalsRowDxfId="5"/>
     <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="4"/>
@@ -1733,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1752,20 +1755,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2051,11 +2054,15 @@
       <c r="I9" s="9">
         <v>460</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
         <v>0</v>
       </c>
-      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2702,7 +2709,9 @@
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7">
@@ -2716,7 +2725,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="10">
         <f>AVERAGE(K3:K28)</f>
-        <v>0.23076923076923078</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="L29" s="10">
         <f>SUBTOTAL(109,Tabela3[Desvio])</f>
@@ -2738,19 +2747,19 @@
       <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="F31" s="31" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="F31" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
@@ -2768,11 +2777,11 @@
       <c r="F32" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="24" t="s">
         <v>40</v>
       </c>
@@ -2793,11 +2802,11 @@
       <c r="F33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="9">
         <v>500</v>
       </c>
@@ -2818,11 +2827,11 @@
       <c r="F34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="9">
         <v>600</v>
       </c>
@@ -2843,11 +2852,11 @@
       <c r="F35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="9">
         <v>2000</v>
       </c>
@@ -2868,11 +2877,11 @@
       <c r="F36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G36" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="9">
         <v>2000</v>
       </c>
@@ -2891,9 +2900,9 @@
         <v>43</v>
       </c>
       <c r="F37" s="19"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -2910,7 +2919,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>32</v>
       </c>
@@ -2926,15 +2935,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="F31:J31"/>
     <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
+    <sheet name="CDP" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -595,6 +595,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,21 +623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,6 +650,28 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -667,6 +689,30 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -681,6 +727,29 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -702,6 +771,30 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -719,6 +812,29 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -736,6 +852,29 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -750,6 +889,29 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -772,6 +934,30 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -786,219 +972,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1026,7 +999,63 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1050,8 +1079,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1064,35 +1093,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1416,22 +1416,22 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Dependência" dataDxfId="22" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="Atividade" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Inicio" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Término" totalsRowLabel="29 dias" dataDxfId="19" totalsRowDxfId="7"/>
-    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="18" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Recurso" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="3">
+    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" name="Dependência" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" name="Atividade" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" name="Inicio" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" name="Término" totalsRowLabel="29 dias" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="8" name="Recurso" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUM(I3:I28)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Status" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="12" name="Taxa de Conclusão" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
+    <tableColumn id="11" name="Status" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="12" name="Taxa de Conclusão" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(K3:K28)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Desvio" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0"/>
+    <tableColumn id="13" name="Desvio" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1755,20 +1755,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2747,19 +2747,19 @@
       <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="F31" s="26" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="F31" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
@@ -2777,11 +2777,11 @@
       <c r="F32" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="24" t="s">
         <v>40</v>
       </c>
@@ -2802,11 +2802,11 @@
       <c r="F33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="9">
         <v>500</v>
       </c>
@@ -2827,11 +2827,11 @@
       <c r="F34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="9">
         <v>600</v>
       </c>
@@ -2852,11 +2852,11 @@
       <c r="F35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="9">
         <v>2000</v>
       </c>
@@ -2877,11 +2877,11 @@
       <c r="F36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="9">
         <v>2000</v>
       </c>
@@ -2900,9 +2900,9 @@
         <v>43</v>
       </c>
       <c r="F37" s="19"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
   <si>
     <t>ID da Atividade</t>
   </si>
@@ -113,9 +113,6 @@
     <t>AT11</t>
   </si>
   <si>
-    <t>AT12</t>
-  </si>
-  <si>
     <t>AT13</t>
   </si>
   <si>
@@ -201,12 +198,6 @@
   </si>
   <si>
     <t>Inicio</t>
-  </si>
-  <si>
-    <t>AT011</t>
-  </si>
-  <si>
-    <t>AT012</t>
   </si>
   <si>
     <t>AT016</t>
@@ -650,28 +641,179 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -695,9 +837,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -713,23 +853,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -753,21 +877,26 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -795,23 +924,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -835,23 +947,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -875,23 +970,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -912,24 +990,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -958,24 +1018,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1000,23 +1042,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1039,23 +1064,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1076,23 +1084,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1382,8 +1373,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A32:D39" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
-  <autoFilter ref="A32:D39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A30:D37" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+  <autoFilter ref="A30:D37">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1400,8 +1391,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:L29" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
-  <autoFilter ref="A2:L28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:L27" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
+  <autoFilter ref="A2:L26">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1416,22 +1407,22 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" name="Dependência" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" name="Atividade" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" name="Inicio" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="6" name="Término" totalsRowLabel="29 dias" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="8" name="Recurso" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
-      <totalsRowFormula>SUM(I3:I28)</totalsRowFormula>
+    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="Dependência" dataDxfId="22" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="Atividade" dataDxfId="21" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Inicio" dataDxfId="20" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="Término" totalsRowLabel="29 dias" dataDxfId="19" totalsRowDxfId="7"/>
+    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="18" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Recurso" dataDxfId="17" totalsRowDxfId="5"/>
+    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(I3:I26)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Status" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="12" name="Taxa de Conclusão" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
-      <totalsRowFormula>AVERAGE(K3:K28)</totalsRowFormula>
+    <tableColumn id="11" name="Status" dataDxfId="14" totalsRowDxfId="2"/>
+    <tableColumn id="12" name="Taxa de Conclusão" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
+      <totalsRowFormula>AVERAGE(K3:K26)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Desvio" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="13" name="Desvio" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1734,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1756,7 +1747,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1781,19 +1772,19 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>5</v>
@@ -1814,7 +1805,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8">
         <v>42644</v>
@@ -1826,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H3" s="7">
         <v>8</v>
@@ -1835,7 +1826,7 @@
         <v>360</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K3" s="10">
         <v>1</v>
@@ -1873,7 +1864,7 @@
         <v>600</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K4" s="10">
         <v>1</v>
@@ -1900,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -1934,7 +1925,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" s="7">
         <v>40</v>
@@ -1943,7 +1934,7 @@
         <v>1840</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K6" s="10">
         <v>1</v>
@@ -1981,7 +1972,7 @@
         <v>300</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K7" s="10">
         <v>1</v>
@@ -2010,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -2019,7 +2010,7 @@
         <v>1800</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K8" s="10">
         <v>1</v>
@@ -2046,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -2055,7 +2046,7 @@
         <v>460</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K9" s="10">
         <v>1</v>
@@ -2072,7 +2063,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8">
         <v>42654</v>
@@ -2084,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2093,7 +2084,7 @@
         <v>5180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K10" s="10">
         <v>1</v>
@@ -2110,7 +2101,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" s="8">
         <v>42657</v>
@@ -2122,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2130,11 +2121,15 @@
       <c r="I11" s="9">
         <v>260</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
         <v>0</v>
       </c>
-      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -2144,7 +2139,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="8">
         <v>42657</v>
@@ -2164,11 +2159,15 @@
       <c r="I12" s="9">
         <v>100</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10">
         <v>0</v>
       </c>
-      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -2178,7 +2177,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="8">
         <v>42658</v>
@@ -2190,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2198,39 +2197,41 @@
       <c r="I13" s="9">
         <v>380</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10">
         <v>0</v>
       </c>
-      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D14" s="8">
-        <v>42658</v>
+        <v>42660</v>
       </c>
       <c r="E14" s="8">
-        <v>42663</v>
+        <v>42660</v>
       </c>
       <c r="F14" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I14" s="9">
-        <v>1700</v>
+        <v>460</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="10">
@@ -2240,29 +2241,29 @@
     </row>
     <row r="15" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="8">
-        <v>42660</v>
+        <v>42661</v>
       </c>
       <c r="E15" s="8">
-        <v>42660</v>
+        <v>42661</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H15" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I15" s="9">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="10">
@@ -2272,29 +2273,31 @@
     </row>
     <row r="16" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7"/>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D16" s="8">
-        <v>42661</v>
+        <v>42662</v>
       </c>
       <c r="E16" s="8">
-        <v>42661</v>
+        <v>42664</v>
       </c>
       <c r="F16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I16" s="9">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="10">
@@ -2304,31 +2307,31 @@
     </row>
     <row r="17" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="8">
-        <v>42664</v>
+        <v>42665</v>
       </c>
       <c r="E17" s="8">
-        <v>42664</v>
+        <v>42665</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" s="9">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="10">
@@ -2338,31 +2341,31 @@
     </row>
     <row r="18" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D18" s="8">
-        <v>42664</v>
+        <v>42665</v>
       </c>
       <c r="E18" s="8">
-        <v>42664</v>
+        <v>42671</v>
       </c>
       <c r="F18" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="10">
@@ -2372,31 +2375,29 @@
     </row>
     <row r="19" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D19" s="8">
-        <v>42665</v>
+        <v>42667</v>
       </c>
       <c r="E19" s="8">
-        <v>42665</v>
+        <v>42667</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I19" s="9">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="10">
@@ -2406,31 +2407,29 @@
     </row>
     <row r="20" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D20" s="8">
-        <v>42665</v>
+        <v>42668</v>
       </c>
       <c r="E20" s="8">
-        <v>42670</v>
+        <v>42668</v>
       </c>
       <c r="F20" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I20" s="9">
-        <v>1700</v>
+        <v>360</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="10">
@@ -2440,29 +2439,31 @@
     </row>
     <row r="21" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8">
-        <v>42667</v>
+        <v>42672</v>
       </c>
       <c r="E21" s="8">
-        <v>42667</v>
+        <v>42672</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I21" s="9">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="10">
@@ -2472,29 +2473,31 @@
     </row>
     <row r="22" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8">
-        <v>42668</v>
+        <v>42672</v>
       </c>
       <c r="E22" s="8">
-        <v>42668</v>
+        <v>42672</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I22" s="9">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="10">
@@ -2504,31 +2507,31 @@
     </row>
     <row r="23" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D23" s="8">
-        <v>42670</v>
+        <v>42669</v>
       </c>
       <c r="E23" s="8">
-        <v>42670</v>
+        <v>42675</v>
       </c>
       <c r="F23" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9">
-        <v>260</v>
+        <v>2400</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="10">
@@ -2538,31 +2541,29 @@
     </row>
     <row r="24" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="3" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D24" s="8">
-        <v>42670</v>
+        <v>42675</v>
       </c>
       <c r="E24" s="8">
-        <v>42670</v>
+        <v>42676</v>
       </c>
       <c r="F24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9">
-        <v>100</v>
+        <v>920</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="10">
@@ -2572,31 +2573,29 @@
     </row>
     <row r="25" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8">
-        <v>42669</v>
+        <v>42676</v>
       </c>
       <c r="E25" s="8">
-        <v>42675</v>
+        <v>42677</v>
       </c>
       <c r="F25" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9">
-        <v>2400</v>
+        <v>720</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="10">
@@ -2606,29 +2605,31 @@
     </row>
     <row r="26" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D26" s="8">
-        <v>42675</v>
+        <v>42678</v>
       </c>
       <c r="E26" s="8">
-        <v>42676</v>
+        <v>42679</v>
       </c>
       <c r="F26" s="7">
         <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9">
-        <v>920</v>
+        <v>600</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="10">
@@ -2638,169 +2639,153 @@
     </row>
     <row r="27" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="8">
-        <v>42676</v>
-      </c>
-      <c r="E27" s="8">
-        <v>42677</v>
-      </c>
-      <c r="F27" s="7">
-        <v>2</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="7">
-        <v>16</v>
+        <f>SUBTOTAL(109,Tabela3[Esforço (em horas)])</f>
+        <v>334</v>
       </c>
       <c r="I27" s="9">
-        <v>720</v>
+        <f>SUM(I3:I26)</f>
+        <v>20660</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="10">
-        <v>0</v>
-      </c>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="8">
-        <v>42678</v>
-      </c>
-      <c r="E28" s="8">
-        <v>42679</v>
-      </c>
-      <c r="F28" s="7">
-        <v>2</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="7">
-        <v>12</v>
-      </c>
-      <c r="I28" s="9">
-        <v>600</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="10">
-        <v>0</v>
-      </c>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
-        <f>SUBTOTAL(109,Tabela3[Esforço (em horas)])</f>
-        <v>374</v>
-      </c>
-      <c r="I29" s="9">
-        <f>SUM(I3:I28)</f>
-        <v>22420</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="10">
-        <f>AVERAGE(K3:K28)</f>
-        <v>0.26923076923076922</v>
-      </c>
-      <c r="L29" s="10">
+        <f>AVERAGE(K3:K26)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L27" s="10">
         <f>SUBTOTAL(109,Tabela3[Desvio])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="F29" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="F31" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-    </row>
-    <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="24" t="s">
-        <v>40</v>
+      <c r="G32" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="9">
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>93</v>
@@ -2808,142 +2793,92 @@
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
       <c r="J33" s="9">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="F34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
+        <v>89</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="9">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="9">
-        <v>2000</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="19"/>
-    </row>
-    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>43</v>
+      <c r="D37" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="G31:I31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>ID da Atividade</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Taxa de Conclusão</t>
-  </si>
-  <si>
-    <t>Desvio</t>
   </si>
   <si>
     <t>AT01</t>
@@ -358,7 +352,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +371,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -508,11 +508,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -529,98 +566,101 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -640,41 +680,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -828,52 +833,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1373,7 +1332,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A30:D37" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A30:D37" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A30:D37">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1381,18 +1340,18 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="ID. Do Recurso" dataDxfId="30"/>
-    <tableColumn id="2" name="Recurso" dataDxfId="29"/>
-    <tableColumn id="3" name="Carga horária" dataDxfId="28"/>
-    <tableColumn id="4" name="Custo" dataDxfId="27"/>
+    <tableColumn id="1" name="ID. Do Recurso" dataDxfId="26"/>
+    <tableColumn id="2" name="Recurso" dataDxfId="25"/>
+    <tableColumn id="3" name="Carga horária" dataDxfId="24"/>
+    <tableColumn id="4" name="Custo" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:L27" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
-  <autoFilter ref="A2:L26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:J27" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="A2:J26">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1403,26 +1362,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
     <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="12">
-    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Dependência" dataDxfId="22" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="Atividade" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Inicio" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Término" totalsRowLabel="29 dias" dataDxfId="19" totalsRowDxfId="7"/>
-    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="18" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Recurso" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="3">
+  <tableColumns count="10">
+    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Dependência" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Atividade" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Inicio" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="Término" totalsRowLabel="29 dias" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Recurso" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
       <totalsRowFormula>SUM(I3:I26)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Status" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="12" name="Taxa de Conclusão" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
-      <totalsRowFormula>AVERAGE(K3:K26)</totalsRowFormula>
+    <tableColumn id="11" name="Status" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
+      <totalsRowFormula>(COUNTIF(J3:J26,"Concluída")/(COUNTIF(J3:J26,"Concluída") + COUNTIF(J3:J26,"")))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Desvio" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1727,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1736,30 +1691,29 @@
     <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="2"/>
+    <col min="4" max="5" width="11.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2"/>
-    <col min="9" max="9" width="12.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="2"/>
+    <col min="8" max="8" width="10.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="A1" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1772,19 +1726,19 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>5</v>
@@ -1792,1093 +1746,959 @@
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42644</v>
+      </c>
+      <c r="E3" s="6">
+        <v>42644</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="I3" s="7">
+        <v>360</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>42646</v>
+      </c>
+      <c r="E4" s="6">
+        <v>42647</v>
+      </c>
+      <c r="F4" s="20">
+        <v>2</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3" t="s">
+      <c r="H4" s="20">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>600</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42647</v>
+      </c>
+      <c r="E5" s="6">
+        <v>42647</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="20">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>360</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42647</v>
+      </c>
+      <c r="E6" s="6">
+        <v>42650</v>
+      </c>
+      <c r="F6" s="20">
+        <v>4</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="20">
+        <v>40</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1840</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6">
+        <v>42651</v>
+      </c>
+      <c r="E7" s="6">
+        <v>42651</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="20">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>300</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6">
+        <v>42651</v>
+      </c>
+      <c r="E8" s="6">
+        <v>42656</v>
+      </c>
+      <c r="F8" s="20">
+        <v>5</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="20">
+        <v>40</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1800</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>42653</v>
+      </c>
+      <c r="E9" s="6">
+        <v>42653</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="20">
+        <v>10</v>
+      </c>
+      <c r="I9" s="7">
+        <v>460</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="6">
+        <v>42654</v>
+      </c>
+      <c r="E10" s="6">
+        <v>42654</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="20">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5180</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="8">
-        <v>42644</v>
-      </c>
-      <c r="E3" s="8">
-        <v>42644</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="D11" s="6">
+        <v>42657</v>
+      </c>
+      <c r="E11" s="6">
+        <v>42657</v>
+      </c>
+      <c r="F11" s="20">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="20">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>170</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="6">
+        <v>42657</v>
+      </c>
+      <c r="E12" s="6">
+        <v>42657</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="20">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>100</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42658</v>
+      </c>
+      <c r="E13" s="6">
+        <v>42658</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="20">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>380</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42660</v>
+      </c>
+      <c r="E14" s="6">
+        <v>42660</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="20">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>460</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42661</v>
+      </c>
+      <c r="E15" s="6">
+        <v>42661</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="20">
+        <v>8</v>
+      </c>
+      <c r="I15" s="7">
+        <v>360</v>
+      </c>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42662</v>
+      </c>
+      <c r="E16" s="6">
+        <v>42664</v>
+      </c>
+      <c r="F16" s="20">
+        <v>2</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="20">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>300</v>
+      </c>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42665</v>
+      </c>
+      <c r="E17" s="6">
+        <v>42665</v>
+      </c>
+      <c r="F17" s="20">
+        <v>1</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="20">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>380</v>
+      </c>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42665</v>
+      </c>
+      <c r="E18" s="6">
+        <v>42671</v>
+      </c>
+      <c r="F18" s="20">
+        <v>5</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="20">
+        <v>38</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1700</v>
+      </c>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42667</v>
+      </c>
+      <c r="E19" s="6">
+        <v>42667</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="20">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>460</v>
+      </c>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E20" s="6">
+        <v>42668</v>
+      </c>
+      <c r="F20" s="20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="20">
+        <v>8</v>
+      </c>
+      <c r="I20" s="7">
+        <v>360</v>
+      </c>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42672</v>
+      </c>
+      <c r="E21" s="6">
+        <v>42672</v>
+      </c>
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="20">
+        <v>6</v>
+      </c>
+      <c r="I21" s="7">
+        <v>260</v>
+      </c>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="6">
+        <v>42672</v>
+      </c>
+      <c r="E22" s="6">
+        <v>42672</v>
+      </c>
+      <c r="F22" s="20">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="20">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>100</v>
+      </c>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="7">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9">
-        <v>360</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="6">
+        <v>42669</v>
+      </c>
+      <c r="E23" s="6">
+        <v>42675</v>
+      </c>
+      <c r="F23" s="20">
+        <v>6</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="20">
+        <v>48</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2400</v>
+      </c>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6">
+        <v>42675</v>
+      </c>
+      <c r="E24" s="6">
+        <v>42676</v>
+      </c>
+      <c r="F24" s="20">
+        <v>2</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="20">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7">
+        <v>920</v>
+      </c>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6">
+        <v>42676</v>
+      </c>
+      <c r="E25" s="6">
+        <v>42677</v>
+      </c>
+      <c r="F25" s="20">
+        <v>2</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="20">
+        <v>16</v>
+      </c>
+      <c r="I25" s="7">
+        <v>720</v>
+      </c>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="6">
+        <v>42678</v>
+      </c>
+      <c r="E26" s="6">
+        <v>42679</v>
+      </c>
+      <c r="F26" s="20">
+        <v>2</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="20">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="I26" s="7">
+        <v>600</v>
+      </c>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20">
+        <f>SUBTOTAL(109,Tabela3[Esforço (em horas)])</f>
+        <v>332</v>
+      </c>
+      <c r="I27" s="7">
+        <f>SUM(I3:I26)</f>
+        <v>20570</v>
+      </c>
+      <c r="J27" s="8">
+        <f>(COUNTIF(J3:J26,"Concluída")/(COUNTIF(J3:J26,"Concluída") + COUNTIF(J3:J26,"")))</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="F29" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="30"/>
+      <c r="I30" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8">
-        <v>42646</v>
-      </c>
-      <c r="E4" s="8">
-        <v>42647</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9">
-        <v>600</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8">
-        <v>42647</v>
-      </c>
-      <c r="E5" s="8">
-        <v>42647</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="9">
-        <v>360</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8">
-        <v>42647</v>
-      </c>
-      <c r="E6" s="8">
-        <v>42650</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="9">
-        <v>1840</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8">
-        <v>42651</v>
-      </c>
-      <c r="E7" s="8">
-        <v>42651</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="9">
-        <v>300</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8">
-        <v>42651</v>
-      </c>
-      <c r="E8" s="8">
-        <v>42656</v>
-      </c>
-      <c r="F8" s="7">
-        <v>5</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="F35" s="21"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1800</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8">
-        <v>42653</v>
-      </c>
-      <c r="E9" s="8">
-        <v>42653</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="7">
-        <v>10</v>
-      </c>
-      <c r="I9" s="9">
-        <v>460</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="8">
-        <v>42654</v>
-      </c>
-      <c r="E10" s="8">
-        <v>42654</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="9">
-        <v>5180</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="8">
-        <v>42657</v>
-      </c>
-      <c r="E11" s="8">
-        <v>42657</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="9">
-        <v>260</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="8">
-        <v>42657</v>
-      </c>
-      <c r="E12" s="8">
-        <v>42657</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="9">
-        <v>100</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="8">
-        <v>42658</v>
-      </c>
-      <c r="E13" s="8">
-        <v>42658</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="9">
-        <v>380</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="8">
-        <v>42660</v>
-      </c>
-      <c r="E14" s="8">
-        <v>42660</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="7">
-        <v>10</v>
-      </c>
-      <c r="I14" s="9">
-        <v>460</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8">
-        <v>42661</v>
-      </c>
-      <c r="E15" s="8">
-        <v>42661</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="7">
-        <v>8</v>
-      </c>
-      <c r="I15" s="9">
-        <v>360</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="10">
-        <v>0</v>
-      </c>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="8">
-        <v>42662</v>
-      </c>
-      <c r="E16" s="8">
-        <v>42664</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="9">
-        <v>300</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="10">
-        <v>0</v>
-      </c>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="8">
-        <v>42665</v>
-      </c>
-      <c r="E17" s="8">
-        <v>42665</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="7">
-        <v>8</v>
-      </c>
-      <c r="I17" s="9">
-        <v>380</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="10">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="8">
-        <v>42665</v>
-      </c>
-      <c r="E18" s="8">
-        <v>42671</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="7">
-        <v>38</v>
-      </c>
-      <c r="I18" s="9">
-        <v>1700</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="8">
-        <v>42667</v>
-      </c>
-      <c r="E19" s="8">
-        <v>42667</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="7">
-        <v>10</v>
-      </c>
-      <c r="I19" s="9">
-        <v>460</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="10">
-        <v>0</v>
-      </c>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E20" s="8">
-        <v>42668</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
-      <c r="I20" s="9">
-        <v>360</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="10">
-        <v>0</v>
-      </c>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="8">
-        <v>42672</v>
-      </c>
-      <c r="E21" s="8">
-        <v>42672</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="7">
-        <v>6</v>
-      </c>
-      <c r="I21" s="9">
-        <v>260</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="10">
-        <v>0</v>
-      </c>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="8">
-        <v>42672</v>
-      </c>
-      <c r="E22" s="8">
-        <v>42672</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="9">
-        <v>100</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="10">
-        <v>0</v>
-      </c>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="8">
-        <v>42669</v>
-      </c>
-      <c r="E23" s="8">
-        <v>42675</v>
-      </c>
-      <c r="F23" s="7">
-        <v>6</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="7">
-        <v>48</v>
-      </c>
-      <c r="I23" s="9">
-        <v>2400</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="10">
-        <v>0</v>
-      </c>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="8">
-        <v>42675</v>
-      </c>
-      <c r="E24" s="8">
-        <v>42676</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="7">
-        <v>20</v>
-      </c>
-      <c r="I24" s="9">
-        <v>920</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="10">
-        <v>0</v>
-      </c>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="8">
-        <v>42676</v>
-      </c>
-      <c r="E25" s="8">
-        <v>42677</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="7">
-        <v>16</v>
-      </c>
-      <c r="I25" s="9">
-        <v>720</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="10">
-        <v>0</v>
-      </c>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="8">
-        <v>42678</v>
-      </c>
-      <c r="E26" s="8">
-        <v>42679</v>
-      </c>
-      <c r="F26" s="7">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="7">
-        <v>12</v>
-      </c>
-      <c r="I26" s="9">
-        <v>600</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="10">
-        <v>0</v>
-      </c>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7">
-        <f>SUBTOTAL(109,Tabela3[Esforço (em horas)])</f>
-        <v>334</v>
-      </c>
-      <c r="I27" s="9">
-        <f>SUM(I3:I26)</f>
-        <v>20660</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="10">
-        <f>AVERAGE(K3:K26)</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L27" s="10">
-        <f>SUBTOTAL(109,Tabela3[Desvio])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="F29" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\GitHub\PSW\Projeto\GPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\PSW\Projeto\GPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
   <si>
     <t>ID da Atividade</t>
   </si>
@@ -617,44 +617,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1700,20 +1700,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2085,7 +2085,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>58</v>
@@ -2177,7 +2177,9 @@
       <c r="I16" s="7">
         <v>300</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
@@ -2205,9 +2207,11 @@
         <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>380</v>
-      </c>
-      <c r="J17" s="20"/>
+        <v>400</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
@@ -2226,18 +2230,20 @@
         <v>42671</v>
       </c>
       <c r="F18" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H18" s="20">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I18" s="7">
-        <v>1700</v>
-      </c>
-      <c r="J18" s="20"/>
+        <v>1340</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
@@ -2265,7 +2271,9 @@
       <c r="I19" s="7">
         <v>460</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
@@ -2485,15 +2493,15 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20">
         <f>SUBTOTAL(109,Tabela3[Esforço (em horas)])</f>
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I27" s="7">
         <f>SUM(I3:I26)</f>
-        <v>20570</v>
+        <v>20250</v>
       </c>
       <c r="J27" s="8">
         <f>(COUNTIF(J3:J26,"Concluída")/(COUNTIF(J3:J26,"Concluída") + COUNTIF(J3:J26,"")))</f>
-        <v>0.45833333333333331</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2509,18 +2517,18 @@
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="F29" s="26" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
@@ -2538,10 +2546,10 @@
       <c r="F30" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="30"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="22" t="s">
         <v>37</v>
       </c>
@@ -2562,10 +2570,10 @@
       <c r="F31" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="7">
         <v>500</v>
       </c>
@@ -2586,10 +2594,10 @@
       <c r="F32" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="25"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="7">
         <v>600</v>
       </c>
@@ -2610,10 +2618,10 @@
       <c r="F33" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="25"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="7">
         <v>2000</v>
       </c>
@@ -2634,10 +2642,10 @@
       <c r="F34" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="25"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="7">
         <v>2000</v>
       </c>
@@ -2656,8 +2664,8 @@
         <v>40</v>
       </c>
       <c r="F35" s="21"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -2690,6 +2698,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
@@ -2698,7 +2707,6 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
   <si>
     <t>ID da Atividade</t>
   </si>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>29 dias</t>
+  </si>
+  <si>
+    <t>AT27</t>
+  </si>
+  <si>
+    <t>2R7</t>
+  </si>
+  <si>
+    <t>AT28</t>
+  </si>
+  <si>
+    <t>Estentida</t>
   </si>
 </sst>
 </file>
@@ -1332,8 +1344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A30:D37" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A30:D37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A32:D39" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A32:D39">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1350,8 +1362,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:J27" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="A2:J26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:J29" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="A2:J28">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1373,10 +1385,10 @@
     <tableColumn id="8" name="Recurso" dataDxfId="13" totalsRowDxfId="3"/>
     <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="2"/>
     <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(I3:I26)</totalsRowFormula>
+      <totalsRowFormula>SUM(I3:I28)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" name="Status" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
-      <totalsRowFormula>(COUNTIF(J3:J26,"Concluída")/(COUNTIF(J3:J26,"Concluída") + COUNTIF(J3:J26,"")))</totalsRowFormula>
+      <totalsRowFormula>(COUNTIF(J3:J28,"Concluída")/(COUNTIF(J3:J28,"Concluída") + COUNTIF(J3:J28,"")))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -1680,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2331,7 +2343,9 @@
       <c r="I21" s="7">
         <v>260</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
@@ -2361,7 +2375,9 @@
       <c r="I22" s="7">
         <v>100</v>
       </c>
-      <c r="J22" s="20"/>
+      <c r="J22" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
@@ -2391,7 +2407,9 @@
       <c r="I23" s="7">
         <v>2400</v>
       </c>
-      <c r="J23" s="20"/>
+      <c r="J23" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
@@ -2405,19 +2423,19 @@
         <v>42675</v>
       </c>
       <c r="E24" s="6">
-        <v>42676</v>
+        <v>42675</v>
       </c>
       <c r="F24" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>76</v>
       </c>
       <c r="H24" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="J24" s="20"/>
     </row>
@@ -2454,184 +2472,194 @@
         <v>78</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26" s="6">
-        <v>42678</v>
+        <v>42676</v>
       </c>
       <c r="E26" s="6">
-        <v>42679</v>
+        <v>42677</v>
       </c>
       <c r="F26" s="20">
         <v>2</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="H26" s="20">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I26" s="7">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6">
+        <v>42678</v>
+      </c>
+      <c r="E27" s="6">
+        <v>42678</v>
+      </c>
+      <c r="F27" s="20">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="20">
+        <v>10</v>
+      </c>
+      <c r="I27" s="7">
+        <v>460</v>
+      </c>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="6">
+        <v>42678</v>
+      </c>
+      <c r="E28" s="6">
+        <v>42679</v>
+      </c>
+      <c r="F28" s="20">
+        <v>2</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="20">
+        <v>12</v>
+      </c>
+      <c r="I28" s="7">
+        <v>600</v>
+      </c>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20">
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20">
         <f>SUBTOTAL(109,Tabela3[Esforço (em horas)])</f>
-        <v>324</v>
-      </c>
-      <c r="I27" s="7">
-        <f>SUM(I3:I26)</f>
-        <v>20250</v>
-      </c>
-      <c r="J27" s="8">
-        <f>(COUNTIF(J3:J26,"Concluída")/(COUNTIF(J3:J26,"Concluída") + COUNTIF(J3:J26,"")))</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="I29" s="7">
+        <f>SUM(I3:I28)</f>
+        <v>21850</v>
+      </c>
+      <c r="J29" s="8">
+        <f>(COUNTIF(J3:J28,"Concluída")/(COUNTIF(J3:J28,"Concluída") + COUNTIF(J3:J28,"")))</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="F29" s="28" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F32" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G32" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="22" t="s">
+      <c r="H32" s="32"/>
+      <c r="I32" s="22" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="7">
-        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="7">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>43</v>
@@ -2640,40 +2668,46 @@
         <v>44</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="7">
-        <v>2000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="21"/>
+      <c r="F35" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="7">
+        <v>2000</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>43</v>
@@ -2681,32 +2715,74 @@
       <c r="D36" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="F36" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B39" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D39" s="16" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>ID da Atividade</t>
   </si>
@@ -311,7 +311,7 @@
     <t>R4, R8, R9, R10</t>
   </si>
   <si>
-    <t>29 dias</t>
+    <t>Iniciada</t>
   </si>
   <si>
     <t>AT27</t>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>Estentida</t>
+  </si>
+  <si>
+    <t>30 dias</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1383,7 @@
     <tableColumn id="2" name="Dependência" dataDxfId="18" totalsRowDxfId="8"/>
     <tableColumn id="4" name="Atividade" dataDxfId="17" totalsRowDxfId="7"/>
     <tableColumn id="5" name="Inicio" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="Término" totalsRowLabel="29 dias" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Término" totalsRowLabel="30 dias" dataDxfId="15" totalsRowDxfId="5"/>
     <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="14" totalsRowDxfId="4"/>
     <tableColumn id="8" name="Recurso" dataDxfId="13" totalsRowDxfId="3"/>
     <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="2"/>
@@ -1388,7 +1391,7 @@
       <totalsRowFormula>SUM(I3:I28)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" name="Status" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
-      <totalsRowFormula>(COUNTIF(J3:J28,"Concluída")/(COUNTIF(J3:J28,"Concluída") + COUNTIF(J3:J28,"")))</totalsRowFormula>
+      <totalsRowFormula>(COUNTIF(J3:J28,"Concluída")/(COUNTIF(J3:J28,"Concluída") + COUNTIF(J3:J28,"&lt;&gt;Concluída")))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -1695,7 +1698,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2437,7 +2440,9 @@
       <c r="I24" s="7">
         <v>460</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
@@ -2495,7 +2500,9 @@
       <c r="I26" s="7">
         <v>1600</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
@@ -2536,10 +2543,10 @@
         <v>34</v>
       </c>
       <c r="D28" s="6">
-        <v>42678</v>
+        <v>42679</v>
       </c>
       <c r="E28" s="6">
-        <v>42679</v>
+        <v>42680</v>
       </c>
       <c r="F28" s="20">
         <v>2</v>
@@ -2563,7 +2570,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -2576,8 +2583,8 @@
         <v>21850</v>
       </c>
       <c r="J29" s="8">
-        <f>(COUNTIF(J3:J28,"Concluída")/(COUNTIF(J3:J28,"Concluída") + COUNTIF(J3:J28,"")))</f>
-        <v>0.68</v>
+        <f>(COUNTIF(J3:J28,"Concluída")/(COUNTIF(J3:J28,"Concluída") + COUNTIF(J3:J28,"&lt;&gt;Concluída")))</f>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
   <si>
     <t>ID da Atividade</t>
   </si>
@@ -266,9 +266,6 @@
     <t>AT018</t>
   </si>
   <si>
-    <t>AT023</t>
-  </si>
-  <si>
     <t>PG2016-1 – Cronograma do Projeto (CPR)</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>30 dias</t>
+  </si>
+  <si>
+    <t>AT026</t>
   </si>
 </sst>
 </file>
@@ -638,6 +638,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -666,9 +669,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1698,7 +1698,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1715,18 +1715,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="24"/>
       <c r="L1" s="23"/>
     </row>
@@ -1986,7 +1986,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="6">
         <v>42654</v>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="20">
         <v>2</v>
@@ -2411,7 +2411,7 @@
         <v>2400</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2492,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" s="20">
         <v>32</v>
@@ -2501,12 +2501,12 @@
         <v>1600</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="3" t="s">
@@ -2530,14 +2530,16 @@
       <c r="I27" s="7">
         <v>460</v>
       </c>
-      <c r="J27" s="20"/>
+      <c r="J27" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>34</v>
@@ -2560,7 +2562,9 @@
       <c r="I28" s="7">
         <v>600</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
@@ -2570,7 +2574,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -2584,7 +2588,7 @@
       </c>
       <c r="J29" s="8">
         <f>(COUNTIF(J3:J28,"Concluída")/(COUNTIF(J3:J28,"Concluída") + COUNTIF(J3:J28,"&lt;&gt;Concluída")))</f>
-        <v>0.69230769230769229</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2600,18 +2604,18 @@
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="F31" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="F31" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
@@ -2627,12 +2631,12 @@
         <v>37</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="32"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="22" t="s">
         <v>37</v>
       </c>
@@ -2651,12 +2655,12 @@
         <v>40</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="26"/>
+        <v>83</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="27"/>
       <c r="I33" s="7">
         <v>500</v>
       </c>
@@ -2675,12 +2679,12 @@
         <v>44</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="26"/>
+        <v>84</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="27"/>
       <c r="I34" s="7">
         <v>600</v>
       </c>
@@ -2699,12 +2703,12 @@
         <v>40</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="27"/>
       <c r="I35" s="7">
         <v>2000</v>
       </c>
@@ -2723,12 +2727,12 @@
         <v>44</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="26"/>
+        <v>86</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="27"/>
       <c r="I36" s="7">
         <v>2000</v>
       </c>
@@ -2747,8 +2751,8 @@
         <v>40</v>
       </c>
       <c r="F37" s="21"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
   <si>
     <t>ID da Atividade</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>AT026</t>
+  </si>
+  <si>
+    <t>AT29</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A32:D39" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A32:D39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A33:D40" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A33:D40">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1365,8 +1368,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:J29" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="A2:J28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:J30" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="A2:J29">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1388,10 +1391,10 @@
     <tableColumn id="8" name="Recurso" dataDxfId="13" totalsRowDxfId="3"/>
     <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="2"/>
     <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(I3:I28)</totalsRowFormula>
+      <totalsRowFormula>SUM(I3:I29)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" name="Status" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
-      <totalsRowFormula>(COUNTIF(J3:J28,"Concluída")/(COUNTIF(J3:J28,"Concluída") + COUNTIF(J3:J28,"&lt;&gt;Concluída")))</totalsRowFormula>
+      <totalsRowFormula>(COUNTIF(J3:J29,"Concluída")/(COUNTIF(J3:J29,"Concluída") + COUNTIF(J3:J29,"&lt;&gt;Concluída")))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -1695,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2538,199 +2541,203 @@
       <c r="A28" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="B28" s="20"/>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6">
-        <v>42679</v>
+        <v>42678</v>
       </c>
       <c r="E28" s="6">
-        <v>42680</v>
+        <v>42678</v>
       </c>
       <c r="F28" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="H28" s="20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I28" s="7">
-        <v>600</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="6">
+        <v>42679</v>
+      </c>
+      <c r="E29" s="6">
+        <v>42680</v>
+      </c>
+      <c r="F29" s="20">
+        <v>2</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="20">
+        <v>12</v>
+      </c>
+      <c r="I29" s="7">
+        <v>600</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20">
         <f>SUBTOTAL(109,Tabela3[Esforço (em horas)])</f>
-        <v>356</v>
-      </c>
-      <c r="I29" s="7">
-        <f>SUM(I3:I28)</f>
-        <v>21850</v>
-      </c>
-      <c r="J29" s="8">
-        <f>(COUNTIF(J3:J28,"Concluída")/(COUNTIF(J3:J28,"Concluída") + COUNTIF(J3:J28,"&lt;&gt;Concluída")))</f>
-        <v>0.76923076923076927</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="I30" s="7">
+        <f>SUM(I3:I29)</f>
+        <v>22210</v>
+      </c>
+      <c r="J30" s="8">
+        <f>(COUNTIF(J3:J29,"Concluída")/(COUNTIF(J3:J29,"Concluída") + COUNTIF(J3:J29,"&lt;&gt;Concluída")))</f>
+        <v>0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="F31" s="29" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="F32" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-    </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F33" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G33" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="22" t="s">
+      <c r="H33" s="33"/>
+      <c r="I33" s="22" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="7">
-        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="7">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="7">
-        <v>2000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="7">
@@ -2739,61 +2746,85 @@
     </row>
     <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="7">
+        <v>2000</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D40" s="16" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="G33:H33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -266,9 +266,6 @@
     <t>AT018</t>
   </si>
   <si>
-    <t>PG2016-1 – Cronograma do Projeto (CPR)</t>
-  </si>
-  <si>
     <t>Recursos Humanos</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>AT29</t>
+  </si>
+  <si>
+    <t>PG2016-1 – Cronograma do Projeto (CDP)</t>
   </si>
 </sst>
 </file>
@@ -698,6 +698,29 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -716,6 +739,30 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -733,6 +780,29 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -750,6 +820,29 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -764,6 +857,29 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -786,6 +902,30 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -800,173 +940,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -994,7 +967,63 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1018,8 +1047,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1032,35 +1061,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1382,18 +1382,18 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Dependência" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Atividade" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Inicio" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="Término" totalsRowLabel="30 dias" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Recurso" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
+    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Dependência" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="Atividade" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Inicio" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="Término" totalsRowLabel="30 dias" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="8" name="Recurso" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(I3:I29)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Status" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
+    <tableColumn id="11" name="Status" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>(COUNTIF(J3:J29,"Concluída")/(COUNTIF(J3:J29,"Concluída") + COUNTIF(J3:J29,"&lt;&gt;Concluída")))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1719,7 +1719,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1989,7 +1989,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6">
         <v>42654</v>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="20">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>2400</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2495,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H26" s="20">
         <v>32</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="27" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="3" t="s">
@@ -2539,7 +2539,7 @@
     </row>
     <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="3" t="s">
@@ -2567,10 +2567,10 @@
     </row>
     <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>34</v>
@@ -2594,7 +2594,7 @@
         <v>600</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2605,7 +2605,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
@@ -2636,13 +2636,13 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="31"/>
       <c r="F32" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
@@ -2662,7 +2662,7 @@
         <v>37</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>4</v>
@@ -2686,10 +2686,10 @@
         <v>40</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="7">
@@ -2710,10 +2710,10 @@
         <v>44</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="7">
@@ -2734,10 +2734,10 @@
         <v>40</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="7">
@@ -2758,10 +2758,10 @@
         <v>44</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="7">

--- a/Projeto/GPR/PG2016-1-CDP.xlsx
+++ b/Projeto/GPR/PG2016-1-CDP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
   <si>
     <t>ID da Atividade</t>
   </si>
@@ -305,9 +305,6 @@
     <t>R4, R8, R9, R10</t>
   </si>
   <si>
-    <t>Iniciada</t>
-  </si>
-  <si>
     <t>AT27</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>AT28</t>
   </si>
   <si>
-    <t>Estentida</t>
-  </si>
-  <si>
     <t>30 dias</t>
   </si>
   <si>
@@ -330,6 +324,18 @@
   </si>
   <si>
     <t>PG2016-1 – Cronograma do Projeto (CDP)</t>
+  </si>
+  <si>
+    <t>Revizar Projeto</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5, R6, R7</t>
+  </si>
+  <si>
+    <t>Realizar Prototipagem - Estendida de AT23</t>
+  </si>
+  <si>
+    <t>__</t>
   </si>
 </sst>
 </file>
@@ -698,29 +704,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -739,6 +722,167 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -763,23 +907,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -803,23 +930,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -843,23 +953,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -880,24 +973,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -926,24 +1001,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -968,7 +1025,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -981,46 +1038,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1044,23 +1067,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1350,8 +1356,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A33:D40" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A33:D40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A34:D41" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A34:D41">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1368,8 +1374,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:J30" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="A2:J29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:J31" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="A2:J30">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1382,19 +1388,19 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Dependência" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="Atividade" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" name="Inicio" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="6" name="Término" totalsRowLabel="30 dias" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="8" name="Recurso" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
-      <totalsRowFormula>SUM(I3:I29)</totalsRowFormula>
+    <tableColumn id="1" name="ID da Atividade" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Dependência" dataDxfId="18" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Atividade" dataDxfId="17" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Inicio" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="Término" totalsRowLabel="30 dias" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="7" name="Tempo Previsto (em dias)" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Recurso" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="9" name="Esforço (em horas)" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Custo Total" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(I3:I30)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Status" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
-      <totalsRowFormula>(COUNTIF(J3:J29,"Concluída")/(COUNTIF(J3:J29,"Concluída") + COUNTIF(J3:J29,"&lt;&gt;Concluída")))</totalsRowFormula>
+    <tableColumn id="11" name="Status" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
+      <totalsRowFormula>((COUNTIF(J3:J30,"Concluída")/(COUNTIF(J3:J30,"Concluída")+COUNTIF(J3:J30,"&lt;&gt;Concluída"))))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -1698,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1719,7 +1725,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1853,7 +1859,9 @@
       <c r="I5" s="7">
         <v>360</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
@@ -2165,7 +2173,9 @@
       <c r="I15" s="7">
         <v>360</v>
       </c>
-      <c r="J15" s="20"/>
+      <c r="J15" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
@@ -2319,7 +2329,9 @@
       <c r="I20" s="7">
         <v>360</v>
       </c>
-      <c r="J20" s="20"/>
+      <c r="J20" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
@@ -2414,7 +2426,7 @@
         <v>2400</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2473,7 +2485,9 @@
       <c r="I25" s="7">
         <v>720</v>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -2483,7 +2497,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D26" s="6">
         <v>42676</v>
@@ -2495,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" s="20">
         <v>32</v>
@@ -2509,7 +2523,7 @@
     </row>
     <row r="27" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="3" t="s">
@@ -2539,7 +2553,7 @@
     </row>
     <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="3" t="s">
@@ -2563,14 +2577,16 @@
       <c r="I28" s="7">
         <v>360</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>34</v>
@@ -2594,174 +2610,182 @@
         <v>600</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="6">
+        <v>42681</v>
+      </c>
+      <c r="E30" s="6">
+        <v>42682</v>
+      </c>
+      <c r="F30" s="20">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20">
+      <c r="B31" s="20"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20">
         <f>SUBTOTAL(109,Tabela3[Esforço (em horas)])</f>
         <v>364</v>
       </c>
-      <c r="I30" s="7">
-        <f>SUM(I3:I29)</f>
+      <c r="I31" s="7">
+        <f>SUM(I3:I30)</f>
         <v>22210</v>
       </c>
-      <c r="J30" s="8">
-        <f>(COUNTIF(J3:J29,"Concluída")/(COUNTIF(J3:J29,"Concluída") + COUNTIF(J3:J29,"&lt;&gt;Concluída")))</f>
-        <v>0.7407407407407407</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="J31" s="8">
+        <f>((COUNTIF(J3:J30,"Concluída")/(COUNTIF(J3:J30,"Concluída")+COUNTIF(J3:J30,"&lt;&gt;Concluída"))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="F32" s="29" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="F33" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35"/>
-    </row>
-    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F34" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G34" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="22" t="s">
+      <c r="H34" s="33"/>
+      <c r="I34" s="22" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="7">
-        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="7">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="7">
-        <v>2000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="7">
@@ -2770,61 +2794,85 @@
     </row>
     <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="7">
+        <v>2000</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B41" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D41" s="16" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
